--- a/inputs/plant_list.xlsx
+++ b/inputs/plant_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\eu_ita_send_report_o&amp;m\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\eu_ita_report_o-m\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDA594F-472A-48C8-8B0C-8DE031B421D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDDC798-6D6F-4CC2-B21A-0C5A0BFEB2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BBBD0CDE-AC1C-4E85-9087-74EFAE8B675D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BBBD0CDE-AC1C-4E85-9087-74EFAE8B675D}"/>
   </bookViews>
   <sheets>
     <sheet name="italy_plants_list_202601271521" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="222">
   <si>
     <t>Asset_unique_id</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>OSCOG01</t>
-  </si>
-  <si>
-    <t>Piani di Sant'Elia</t>
   </si>
   <si>
     <t>IT001E61622282</t>
@@ -1552,26 +1549,26 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1589,7 +1586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1612,7 +1609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1632,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1655,7 +1652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1678,7 +1675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1744,7 +1741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1767,7 +1764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1813,7 +1810,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1836,7 +1833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1859,7 +1856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1882,7 +1879,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1905,7 +1902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1928,7 +1925,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1951,7 +1948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>23</v>
       </c>
@@ -1997,7 +1994,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>30</v>
       </c>
@@ -2020,7 +2017,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>33</v>
       </c>
@@ -2043,7 +2040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>34</v>
       </c>
@@ -2066,7 +2063,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>42</v>
       </c>
@@ -2089,7 +2086,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>43</v>
       </c>
@@ -2112,7 +2109,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>44</v>
       </c>
@@ -2135,7 +2132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>45</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>46</v>
       </c>
@@ -2181,7 +2178,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>47</v>
       </c>
@@ -2204,7 +2201,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>48</v>
       </c>
@@ -2218,7 +2215,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>49</v>
       </c>
@@ -2241,7 +2238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>50</v>
       </c>
@@ -2264,7 +2261,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>51</v>
       </c>
@@ -2287,7 +2284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>52</v>
       </c>
@@ -2310,7 +2307,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>53</v>
       </c>
@@ -2333,843 +2330,843 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35">
         <v>402</v>
       </c>
       <c r="F35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" t="s">
         <v>109</v>
       </c>
-      <c r="G35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36">
         <v>420</v>
       </c>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37">
         <v>346</v>
       </c>
       <c r="F37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
       </c>
       <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" t="s">
         <v>118</v>
       </c>
-      <c r="F38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39">
         <v>389</v>
       </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40">
         <v>395</v>
       </c>
       <c r="F40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41">
         <v>419</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42">
         <v>398</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43">
         <v>401</v>
       </c>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>64</v>
       </c>
       <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
         <v>135</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>136</v>
-      </c>
-      <c r="D44" t="s">
-        <v>137</v>
       </c>
       <c r="E44">
         <v>365</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>65</v>
       </c>
       <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
         <v>139</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>140</v>
-      </c>
-      <c r="D45" t="s">
-        <v>141</v>
       </c>
       <c r="E45">
         <v>379</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>66</v>
       </c>
       <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" t="s">
         <v>143</v>
-      </c>
-      <c r="C46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" t="s">
-        <v>144</v>
       </c>
       <c r="E46">
         <v>363</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>67</v>
       </c>
       <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" t="s">
         <v>146</v>
-      </c>
-      <c r="C47" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" t="s">
-        <v>147</v>
       </c>
       <c r="E47">
         <v>364</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E48">
         <v>380</v>
       </c>
       <c r="F48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E49">
         <v>381</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G49" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E50">
         <v>382</v>
       </c>
       <c r="F50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G50" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E51">
         <v>383</v>
       </c>
       <c r="F51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52">
         <v>384</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E53">
         <v>385</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54" t="s">
         <v>168</v>
       </c>
-      <c r="F54" t="s">
-        <v>167</v>
-      </c>
-      <c r="G54" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E55">
         <v>394</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E56">
         <v>393</v>
       </c>
       <c r="F56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G56" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E57">
         <v>348</v>
       </c>
       <c r="F57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G57" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E58">
         <v>350</v>
       </c>
       <c r="F58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E59">
         <v>345</v>
       </c>
       <c r="F59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E60">
         <v>349</v>
       </c>
       <c r="F60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E61">
         <v>362</v>
       </c>
       <c r="F61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>82</v>
       </c>
       <c r="B62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" t="s">
         <v>191</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>192</v>
-      </c>
-      <c r="D62" t="s">
-        <v>193</v>
       </c>
       <c r="E62">
         <v>343</v>
       </c>
       <c r="F62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G62" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>83</v>
       </c>
       <c r="B63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="s">
         <v>195</v>
-      </c>
-      <c r="C63" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63" t="s">
-        <v>196</v>
       </c>
       <c r="E63">
         <v>347</v>
       </c>
       <c r="F63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G63" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>84</v>
       </c>
       <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" t="s">
         <v>198</v>
-      </c>
-      <c r="C64" t="s">
-        <v>192</v>
-      </c>
-      <c r="D64" t="s">
-        <v>199</v>
       </c>
       <c r="E64">
         <v>405</v>
       </c>
       <c r="F64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>85</v>
       </c>
       <c r="B65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" t="s">
         <v>201</v>
-      </c>
-      <c r="C65" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" t="s">
-        <v>202</v>
       </c>
       <c r="E65">
         <v>406</v>
       </c>
       <c r="F65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>86</v>
       </c>
       <c r="B66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" t="s">
         <v>204</v>
-      </c>
-      <c r="C66" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" t="s">
-        <v>205</v>
       </c>
       <c r="E66">
         <v>342</v>
       </c>
       <c r="F66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G66" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>87</v>
       </c>
       <c r="B67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" t="s">
         <v>207</v>
       </c>
-      <c r="C67" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="F67" t="s">
+        <v>206</v>
+      </c>
+      <c r="G67" t="s">
         <v>208</v>
       </c>
-      <c r="F67" t="s">
-        <v>207</v>
-      </c>
-      <c r="G67" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>88</v>
       </c>
       <c r="B68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" t="s">
         <v>210</v>
-      </c>
-      <c r="C68" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" t="s">
-        <v>211</v>
       </c>
       <c r="E68">
         <v>370</v>
       </c>
       <c r="F68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G68" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>89</v>
       </c>
       <c r="B69" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" t="s">
         <v>213</v>
-      </c>
-      <c r="C69" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" t="s">
-        <v>214</v>
       </c>
       <c r="E69">
         <v>371</v>
       </c>
       <c r="F69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G69" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>90</v>
       </c>
       <c r="B70" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" t="s">
         <v>216</v>
-      </c>
-      <c r="C70" t="s">
-        <v>192</v>
-      </c>
-      <c r="D70" t="s">
-        <v>217</v>
       </c>
       <c r="E70">
         <v>373</v>
       </c>
       <c r="F70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G70" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C71" t="s">
         <v>20</v>
       </c>
       <c r="D71" t="s">
+        <v>219</v>
+      </c>
+      <c r="F71" t="s">
+        <v>218</v>
+      </c>
+      <c r="G71" t="s">
         <v>220</v>
-      </c>
-      <c r="F71" t="s">
-        <v>219</v>
-      </c>
-      <c r="G71" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
